--- a/Archivos Excel/creates.xlsx
+++ b/Archivos Excel/creates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\SkyDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC51A49B-BC24-44EB-ADDA-516817FF48AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ACC7EB-BF0A-4004-AFA5-66529E4A6523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{1FA355CA-FA8A-45BE-993E-E7A3BA6D1725}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>#John Coltrane´s Band ID: 270</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>#Reincidentes´s Band ID: 430</t>
+  </si>
+  <si>
+    <t>insert into creates into(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -77,10 +86,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,125 +405,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897103AB-B7C0-4D9B-B5A6-067194242042}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>270</v>
       </c>
       <c r="B1">
         <v>2056</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="2"/>
+      <c r="I1" t="str">
+        <f>CONCATENATE($K$1,A1,$K$2,B1,$L$1)</f>
+        <v>insert into creates into(270,2056);</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>270</v>
       </c>
       <c r="B2">
         <v>2984</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE($K$1,A2,$K$2,B2,$L$1)</f>
+        <v>insert into creates into(270,2984);</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>110</v>
       </c>
       <c r="B4">
         <v>1784</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE($K$1,A4,$K$2,B4,$L$1)</f>
+        <v>insert into creates into(110,1784);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>430</v>
       </c>
       <c r="B6">
         <v>3492</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE($K$1,A6,$K$2,B6,$L$1)</f>
+        <v>insert into creates into(430,3492);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>430</v>
       </c>
       <c r="B7">
         <v>6321</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE($K$1,A7,$K$2,B7,$L$1)</f>
+        <v>insert into creates into(430,6321);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>430</v>
       </c>
       <c r="B8">
         <v>3229</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE($K$1,A8,$K$2,B8,$L$1)</f>
+        <v>insert into creates into(430,3229);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Archivos Excel/creates.xlsx
+++ b/Archivos Excel/creates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ACC7EB-BF0A-4004-AFA5-66529E4A6523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6508E618-1DB1-436A-8812-3E3E859F0E7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{1FA355CA-FA8A-45BE-993E-E7A3BA6D1725}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>#John Coltrane´s Band ID: 270</t>
   </si>
@@ -41,13 +41,16 @@
     <t>#Reincidentes´s Band ID: 430</t>
   </si>
   <si>
-    <t>insert into creates into(</t>
-  </si>
-  <si>
     <t>);</t>
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>insert into creates values(</t>
+  </si>
+  <si>
+    <t>#The Rolling Stones´s Band ID: 781</t>
   </si>
 </sst>
 </file>
@@ -408,13 +411,14 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A10" sqref="A10:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -430,13 +434,13 @@
       <c r="E1" s="2"/>
       <c r="I1" t="str">
         <f>CONCATENATE($K$1,A1,$K$2,B1,$L$1)</f>
-        <v>insert into creates into(270,2056);</v>
+        <v>insert into creates values(270,2056);</v>
       </c>
       <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -450,13 +454,13 @@
       <c r="E2" s="2"/>
       <c r="I2" t="str">
         <f>CONCATENATE($K$1,A2,$K$2,B2,$L$1)</f>
-        <v>insert into creates into(270,2984);</v>
+        <v>insert into creates values(270,2984);</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -476,7 +480,7 @@
       <c r="E4" s="2"/>
       <c r="I4" t="str">
         <f>CONCATENATE($K$1,A4,$K$2,B4,$L$1)</f>
-        <v>insert into creates into(110,1784);</v>
+        <v>insert into creates values(110,1784);</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -496,7 +500,7 @@
       <c r="E6" s="2"/>
       <c r="I6" t="str">
         <f>CONCATENATE($K$1,A6,$K$2,B6,$L$1)</f>
-        <v>insert into creates into(430,3492);</v>
+        <v>insert into creates values(430,3492);</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -510,7 +514,7 @@
       <c r="E7" s="2"/>
       <c r="I7" t="str">
         <f>CONCATENATE($K$1,A7,$K$2,B7,$L$1)</f>
-        <v>insert into creates into(430,6321);</v>
+        <v>insert into creates values(430,6321);</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -524,7 +528,7 @@
       <c r="E8" s="2"/>
       <c r="I8" t="str">
         <f>CONCATENATE($K$1,A8,$K$2,B8,$L$1)</f>
-        <v>insert into creates into(430,3229);</v>
+        <v>insert into creates values(430,3229);</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -532,27 +536,104 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10">
+        <v>781</v>
+      </c>
+      <c r="B10">
+        <v>3282</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10:I16" si="0">CONCATENATE($K$1,A10,$K$2,B10,$L$1)</f>
+        <v>insert into creates values(781,3282);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>781</v>
+      </c>
+      <c r="B11">
+        <v>3627</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into creates values(781,3627);</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
+      <c r="A12">
+        <v>781</v>
+      </c>
+      <c r="B12">
+        <v>7329</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into creates values(781,7329);</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13">
+        <v>781</v>
+      </c>
+      <c r="B13">
+        <v>7482</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into creates values(781,7482);</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14">
+        <v>781</v>
+      </c>
+      <c r="B14">
+        <v>5738</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into creates values(781,5738);</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15">
+        <v>781</v>
+      </c>
+      <c r="B15">
+        <v>6234</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into creates values(781,6234);</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16">
+        <v>781</v>
+      </c>
+      <c r="B16">
+        <v>7231</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into creates values(781,7231);</v>
+      </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
@@ -563,10 +644,11 @@
       <c r="E18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D6:E8"/>
+    <mergeCell ref="D10:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
